--- a/Beginner/Slides/Lec_2_3.xlsx
+++ b/Beginner/Slides/Lec_2_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F467FCC-4CCD-4643-925F-90A5775838AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B9D785-FAA2-9849-83D3-32F1A9048E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -2429,7 +2429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2489,6 +2489,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2507,43 +2518,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3230,7 +3210,7 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3435,7 +3415,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="50" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3449,7 +3429,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -3461,7 +3441,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -3473,7 +3453,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -3485,7 +3465,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -3497,7 +3477,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -3509,7 +3489,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -3521,7 +3501,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -3533,7 +3513,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -3545,7 +3525,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -3557,7 +3537,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -3569,7 +3549,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -3581,7 +3561,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -3593,7 +3573,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -3605,7 +3585,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -3617,7 +3597,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="43"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -3629,7 +3609,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="43"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="52" spans="1:4" ht="27">
       <c r="A52" s="3" t="s">
@@ -4061,10 +4041,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="44"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="23" t="s">
@@ -4147,7 +4127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -4156,7 +4138,7 @@
     <col min="3" max="3" width="58.33203125" style="15" customWidth="1"/>
     <col min="4" max="4" width="82.5" style="15" customWidth="1"/>
     <col min="5" max="5" width="33" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="61"/>
+    <col min="6" max="6" width="10.83203125" style="46"/>
     <col min="7" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
@@ -4274,15 +4256,15 @@
       <c r="D15" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="27" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -4293,8 +4275,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="45" t="s">
         <v>498</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -4305,10 +4287,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="27" t="s">
         <v>211</v>
       </c>
       <c r="D18" s="27" t="s">
@@ -4319,8 +4301,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="55"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="27" t="s">
         <v>214</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -4331,10 +4313,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -4345,8 +4327,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="55"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="27" t="s">
         <v>221</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -4357,10 +4339,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="45" t="s">
         <v>225</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -4385,7 +4367,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="55" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -4399,7 +4381,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="49"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="27" t="s">
         <v>234</v>
       </c>
@@ -4411,7 +4393,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="50"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="27" t="s">
         <v>237</v>
       </c>
@@ -4446,15 +4428,15 @@
       <c r="D34" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="48" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="27" t="s">
         <v>621</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -4465,8 +4447,8 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="59"/>
-      <c r="C36" s="54" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="27" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="27" t="s">
@@ -4477,8 +4459,8 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="59"/>
-      <c r="C37" s="54" t="s">
+      <c r="B37" s="53"/>
+      <c r="C37" s="27" t="s">
         <v>617</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -4489,8 +4471,8 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="59"/>
-      <c r="C38" s="54" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="27" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -4501,8 +4483,8 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="59"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="27" t="s">
         <v>255</v>
       </c>
       <c r="D39" s="27" t="s">
@@ -4513,8 +4495,8 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="60"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="27" t="s">
         <v>257</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -4525,10 +4507,10 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="27" t="s">
         <v>261</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -4539,8 +4521,8 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="59"/>
-      <c r="C42" s="54" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="27" t="s">
         <v>264</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -4551,8 +4533,8 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="59"/>
-      <c r="C43" s="65" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="49" t="s">
         <v>619</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -4561,13 +4543,13 @@
       <c r="E43" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="46" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="59"/>
-      <c r="C44" s="54" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="27" t="s">
         <v>618</v>
       </c>
       <c r="D44" s="27" t="s">
@@ -4578,8 +4560,8 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="59"/>
-      <c r="C45" s="54" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="27" t="s">
         <v>269</v>
       </c>
       <c r="D45" s="27" t="s">
@@ -4590,8 +4572,8 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="60"/>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="27" t="s">
         <v>271</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -4602,7 +4584,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="52" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="27" t="s">
@@ -4616,7 +4598,7 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="46"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="27" t="s">
         <v>277</v>
       </c>
@@ -4628,7 +4610,7 @@
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="46"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="27" t="s">
         <v>280</v>
       </c>
@@ -4640,7 +4622,7 @@
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="46"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="27" t="s">
         <v>283</v>
       </c>
@@ -4652,7 +4634,7 @@
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="46"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27" t="s">
         <v>286</v>
       </c>
@@ -4664,7 +4646,7 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="47"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="27" t="s">
         <v>289</v>
       </c>
@@ -4676,7 +4658,7 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="52" t="s">
         <v>292</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -4690,7 +4672,7 @@
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="46"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="27" t="s">
         <v>296</v>
       </c>
@@ -4702,7 +4684,7 @@
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="46"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="27" t="s">
         <v>299</v>
       </c>
@@ -4714,7 +4696,7 @@
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="46"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
@@ -4726,7 +4708,7 @@
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="47"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="27" t="s">
         <v>305</v>
       </c>
@@ -4738,7 +4720,7 @@
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="52" t="s">
         <v>308</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -4752,7 +4734,7 @@
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="46"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="27" t="s">
         <v>312</v>
       </c>
@@ -4764,7 +4746,7 @@
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="46"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="27" t="s">
         <v>315</v>
       </c>
@@ -4776,7 +4758,7 @@
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="47"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="27" t="s">
         <v>318</v>
       </c>
@@ -4791,283 +4773,283 @@
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="64"/>
+      <c r="E62"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="64"/>
+      <c r="E63"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="64"/>
+      <c r="E64"/>
     </row>
     <row r="65" spans="2:5">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="64"/>
+      <c r="E65"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="64"/>
+      <c r="E66"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="64"/>
+      <c r="E67"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="64"/>
+      <c r="E68"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" s="64"/>
+      <c r="E69"/>
     </row>
     <row r="70" spans="2:5">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70" s="64"/>
+      <c r="E70"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" s="64"/>
+      <c r="E71"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" s="64"/>
+      <c r="E72"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="64"/>
+      <c r="E73"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" s="64"/>
+      <c r="E74"/>
     </row>
     <row r="75" spans="2:5">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75" s="64"/>
+      <c r="E75"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="64"/>
+      <c r="E76"/>
     </row>
     <row r="77" spans="2:5">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77" s="64"/>
+      <c r="E77"/>
     </row>
     <row r="78" spans="2:5">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" s="64"/>
+      <c r="E78"/>
     </row>
     <row r="79" spans="2:5">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" s="64"/>
+      <c r="E79"/>
     </row>
     <row r="80" spans="2:5">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80" s="64"/>
+      <c r="E80"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81" s="64"/>
+      <c r="E81"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="64"/>
+      <c r="E82"/>
     </row>
     <row r="83" spans="2:5">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" s="64"/>
+      <c r="E83"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" s="64"/>
+      <c r="E84"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" s="64"/>
+      <c r="E85"/>
     </row>
     <row r="86" spans="2:5">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86" s="64"/>
+      <c r="E86"/>
     </row>
     <row r="87" spans="2:5">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="64"/>
+      <c r="E87"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" s="64"/>
+      <c r="E88"/>
     </row>
     <row r="89" spans="2:5">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" s="64"/>
+      <c r="E89"/>
     </row>
     <row r="90" spans="2:5">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90" s="64"/>
+      <c r="E90"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" s="64"/>
+      <c r="E91"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" s="64"/>
+      <c r="E92"/>
     </row>
     <row r="93" spans="2:5">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" s="64"/>
+      <c r="E93"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" s="64"/>
+      <c r="E94"/>
     </row>
     <row r="95" spans="2:5">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
-      <c r="E95" s="64"/>
+      <c r="E95"/>
     </row>
     <row r="96" spans="2:5">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="E96" s="64"/>
+      <c r="E96"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" s="64"/>
+      <c r="E97"/>
     </row>
     <row r="98" spans="2:5">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98" s="64"/>
+      <c r="E98"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" s="64"/>
+      <c r="E99"/>
     </row>
     <row r="100" spans="2:5">
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" s="64"/>
+      <c r="E100"/>
     </row>
     <row r="101" spans="2:5">
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" s="64"/>
+      <c r="E101"/>
     </row>
     <row r="102" spans="2:5">
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" s="64"/>
+      <c r="E102"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="E103" s="64"/>
+      <c r="E103"/>
     </row>
     <row r="104" spans="2:5">
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104" s="64"/>
+      <c r="E104"/>
     </row>
     <row r="105" spans="2:5">
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" s="64"/>
+      <c r="E105"/>
     </row>
     <row r="106" spans="2:5">
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="64"/>
+      <c r="E106"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="64"/>
+      <c r="E107"/>
     </row>
     <row r="108" spans="2:5">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="E108" s="64"/>
+      <c r="E108"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5517,17 +5499,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="52"/>
+    <col min="7" max="7" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17">
       <c r="A1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="43" t="s">
         <v>568</v>
       </c>
       <c r="W1" t="s">
@@ -5549,10 +5531,10 @@
       <c r="A3" t="s">
         <v>413</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="43" t="s">
         <v>569</v>
       </c>
       <c r="W3" t="s">
@@ -5575,10 +5557,10 @@
       <c r="A5" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="43" t="s">
         <v>570</v>
       </c>
       <c r="W5" t="s">
@@ -5593,10 +5575,10 @@
     </row>
     <row r="7" spans="1:23" ht="18">
       <c r="B7" s="16"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="43" t="s">
         <v>571</v>
       </c>
       <c r="W7" t="s">
@@ -5619,7 +5601,7 @@
         <v>416</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="43" t="s">
         <v>572</v>
       </c>
     </row>
@@ -5627,7 +5609,7 @@
       <c r="A10" t="s">
         <v>417</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="44" t="s">
         <v>513</v>
       </c>
       <c r="W10" t="s">
@@ -5642,7 +5624,7 @@
       <c r="H11" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="43" t="s">
         <v>573</v>
       </c>
       <c r="W11" t="s">
@@ -5654,7 +5636,7 @@
         <v>419</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="44" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5665,7 +5647,7 @@
       <c r="H13" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="43" t="s">
         <v>574</v>
       </c>
       <c r="W13" t="s">
@@ -5674,7 +5656,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" s="1"/>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="44" t="s">
         <v>517</v>
       </c>
       <c r="W14" t="s">
@@ -5685,7 +5667,7 @@
       <c r="H15" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="O15" s="51" t="s">
+      <c r="O15" s="43" t="s">
         <v>575</v>
       </c>
       <c r="W15" t="s">
@@ -5696,7 +5678,7 @@
       <c r="A16" t="s">
         <v>421</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="44" t="s">
         <v>519</v>
       </c>
       <c r="W16" t="s">
@@ -5710,7 +5692,7 @@
       <c r="H17" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="43" t="s">
         <v>576</v>
       </c>
       <c r="W17" t="s">
@@ -5726,10 +5708,10 @@
       <c r="A19" t="s">
         <v>420</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="O19" s="51" t="s">
+      <c r="O19" s="43" t="s">
         <v>577</v>
       </c>
       <c r="W19" t="s">
@@ -5746,10 +5728,10 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20">
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="O21" s="51" t="s">
+      <c r="O21" s="43" t="s">
         <v>578</v>
       </c>
       <c r="W21" t="s">
@@ -5773,7 +5755,7 @@
         <v>423</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="44" t="s">
         <v>525</v>
       </c>
       <c r="W23" t="s">
@@ -5790,7 +5772,7 @@
         <v>424</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="44" t="s">
         <v>536</v>
       </c>
       <c r="W25" t="s">
@@ -5822,7 +5804,7 @@
         <v>420</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="44" t="s">
         <v>528</v>
       </c>
       <c r="W28" t="s">
@@ -5850,7 +5832,7 @@
       <c r="A31" t="s">
         <v>418</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="44" t="s">
         <v>531</v>
       </c>
       <c r="W31" t="s">
@@ -5882,7 +5864,7 @@
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="44" t="s">
         <v>537</v>
       </c>
       <c r="W34" t="s">
@@ -5921,7 +5903,7 @@
       <c r="A38" t="s">
         <v>420</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="44" t="s">
         <v>563</v>
       </c>
       <c r="W38" t="s">
@@ -5967,7 +5949,7 @@
       <c r="A43" t="s">
         <v>429</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="44" t="s">
         <v>542</v>
       </c>
       <c r="W43" t="s">
@@ -6024,7 +6006,7 @@
       <c r="A49" t="s">
         <v>430</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="44" t="s">
         <v>564</v>
       </c>
       <c r="W49" t="s">
@@ -6085,7 +6067,7 @@
         <v>432</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="44" t="s">
         <v>565</v>
       </c>
       <c r="W55" t="s">
@@ -6151,7 +6133,7 @@
       <c r="A62" t="s">
         <v>435</v>
       </c>
-      <c r="G62" s="52" t="s">
+      <c r="G62" s="44" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6201,7 +6183,7 @@
       <c r="A69" t="s">
         <v>438</v>
       </c>
-      <c r="G69" s="52" t="s">
+      <c r="G69" s="44" t="s">
         <v>567</v>
       </c>
     </row>

--- a/Beginner/Slides/Lec_2_3.xlsx
+++ b/Beginner/Slides/Lec_2_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F9690-7CE6-074F-ACC8-05FD982EF5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAB98E-66AF-8E45-9B9A-350CB80A0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="4" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -3460,7 +3460,7 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -4327,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5707,7 +5707,7 @@
   </sheetPr>
   <dimension ref="A1:AI176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Beginner/Slides/Lec_2_3.xlsx
+++ b/Beginner/Slides/Lec_2_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAB98E-66AF-8E45-9B9A-350CB80A0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63493E-3128-2045-8B14-CCA42A744EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="4" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -2739,6 +2739,8 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2772,8 +2774,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3667,7 +3667,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -3693,7 +3693,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -3705,7 +3705,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="61"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -3717,7 +3717,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -3729,7 +3729,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -3741,7 +3741,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -3753,7 +3753,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -3765,7 +3765,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="61"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -3777,7 +3777,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -3789,7 +3789,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -3801,7 +3801,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -3813,7 +3813,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="59"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -3825,7 +3825,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -3837,7 +3837,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -3849,7 +3849,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -3861,7 +3861,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="52" spans="1:6" ht="29">
       <c r="A52" s="3" t="s">
@@ -4241,10 +4241,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="69" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="48" t="s">
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="68"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="49" t="s">
         <v>487</v>
       </c>
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="48" t="s">
@@ -4501,7 +4501,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="68"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="48" t="s">
         <v>214</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="69" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -4527,7 +4527,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="68"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="48" t="s">
         <v>221</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="69" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -4581,7 +4581,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="69"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="26" t="s">
         <v>234</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="68"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="26" t="s">
         <v>237</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="63" t="s">
         <v>245</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="62"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="26" t="s">
         <v>248</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="62"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="26" t="s">
         <v>603</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="62"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="26" t="s">
         <v>252</v>
       </c>
@@ -4683,7 +4683,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="62"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="26" t="s">
         <v>254</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="63"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="26" t="s">
         <v>256</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="63" t="s">
         <v>259</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="62"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="26" t="s">
         <v>262</v>
       </c>
@@ -4733,8 +4733,8 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="62"/>
-      <c r="C43" s="70" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="59" t="s">
         <v>605</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -4748,7 +4748,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="62"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="26" t="s">
         <v>604</v>
       </c>
@@ -4760,8 +4760,8 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="62"/>
-      <c r="C45" s="71" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="60" t="s">
         <v>267</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="63"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="26" t="s">
         <v>269</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="66" t="s">
         <v>270</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -4805,7 +4805,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="65"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="26" t="s">
         <v>274</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="65"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="26" t="s">
         <v>277</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="65"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="26" t="s">
         <v>280</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="65"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="26" t="s">
         <v>283</v>
       </c>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="66"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="26" t="s">
         <v>286</v>
       </c>
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="66" t="s">
         <v>289</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -4887,7 +4887,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="65"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="26" t="s">
         <v>293</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="65"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="26" t="s">
         <v>296</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="65"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="26" t="s">
         <v>299</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="66"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="26" t="s">
         <v>302</v>
       </c>
@@ -4935,7 +4935,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="65"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="26" t="s">
         <v>309</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="65"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="26" t="s">
         <v>312</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="66"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="26" t="s">
         <v>315</v>
       </c>
@@ -5707,7 +5707,7 @@
   </sheetPr>
   <dimension ref="A1:AI176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6959,7 +6959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C602E8ED-A0F7-DA40-B8A6-D0BEDEDEE8F4}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
